--- a/output/experiments/thesis_topic1/6h-bat-52weeks-0.6dc.xlsx
+++ b/output/experiments/thesis_topic1/6h-bat-52weeks-0.6dc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\thesis_topic1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F882B32-7B02-465E-ABFF-C84FFC27B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E99CE-86A5-41CD-9160-406BA17D966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="123">
   <si>
     <t>status</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Disturbance</t>
+  </si>
+  <si>
+    <t>disturbance_scale</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
   <dimension ref="A1:BC313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J301" sqref="J301"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -857,7 +860,7 @@
         <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
